--- a/PEERREVIEW/Transaction.xlsx
+++ b/PEERREVIEW/Transaction.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,11 +83,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>newTransaction method should nename to addTransaction?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>how to get id for new transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckOutPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation of event listener should be encapsulated in a method, the listener only call this method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newTransaction method should rename to addTransaction?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redeemLoyaltyPoint should be used as cash, and the percentage of cash to point should be set as constant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">better to make all error msg text to be constant at the head of class </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -180,6 +196,12 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,7 +500,7 @@
   <dimension ref="B1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -487,7 +509,7 @@
     <col min="2" max="2" width="4.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="16.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="74" style="1" customWidth="1"/>
+    <col min="5" max="5" width="74" style="10" customWidth="1"/>
     <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.625" style="8" customWidth="1"/>
@@ -505,7 +527,7 @@
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -530,7 +552,7 @@
         <v>42080</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
@@ -549,7 +571,7 @@
       <c r="D4" s="7">
         <v>42080</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -569,7 +591,7 @@
       <c r="D5" s="7">
         <v>42080</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -589,7 +611,7 @@
       <c r="D6" s="7">
         <v>42080</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -609,7 +631,7 @@
       <c r="D7" s="7">
         <v>42080</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -629,8 +651,8 @@
       <c r="D8" s="7">
         <v>42080</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
+      <c r="E8" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
@@ -643,10 +665,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
+        <v>42087</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="7"/>
     </row>
@@ -655,22 +685,38 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
+        <v>42087</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" ht="31.5">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7">
+        <v>42087</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="7"/>
     </row>
@@ -681,7 +727,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="7"/>
@@ -693,7 +739,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="7"/>
@@ -705,7 +751,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="7"/>
@@ -717,7 +763,7 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="7"/>
@@ -729,7 +775,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="7"/>
@@ -741,7 +787,7 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="7"/>
@@ -753,7 +799,7 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="7"/>
@@ -765,7 +811,7 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="7"/>
@@ -777,7 +823,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="7"/>
@@ -786,7 +832,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="7"/>
@@ -795,7 +841,7 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="7"/>
@@ -804,7 +850,7 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="7"/>
@@ -813,7 +859,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="7"/>
@@ -822,7 +868,7 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="7"/>
